--- a/biology/Médecine/Hiatus_du_canal_du_nerf_petit_pétreux/Hiatus_du_canal_du_nerf_petit_pétreux.xlsx
+++ b/biology/Médecine/Hiatus_du_canal_du_nerf_petit_pétreux/Hiatus_du_canal_du_nerf_petit_pétreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hiatus_du_canal_du_nerf_petit_p%C3%A9treux</t>
+          <t>Hiatus_du_canal_du_nerf_petit_pétreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hiatus du canal du nerf petit pétreux (ou hiatus accessoire) est un orifice allongé de la face antérieure de la partie pétreuse de l'os temporal.
 Il est externe au hiatus du canal du nerf grand pétreux., postérieur au sillon pour le sinus pétreux supérieur et postéro-latéral au foramen jugulaire.
